--- a/docs/resources_links.xlsx
+++ b/docs/resources_links.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R_projects\XBRL_Training\xml_files\incomeStatementExample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R_projects\XBRL_notes\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D69C5ACF-3273-46FF-9A45-E4536C0A7E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Browse collection of publicly available taxonomies from allover the world</t>
   </si>
@@ -54,12 +55,24 @@
   </si>
   <si>
     <t>European Single Electronic Filing Taxonomy (ESEF) published by (European Securities And Market Authority)</t>
+  </si>
+  <si>
+    <t>[XBRL International Website](https://www.xbrl.org/)</t>
+  </si>
+  <si>
+    <t>XBRL International is a global not for profit operating in the public interest. Our purpose is to improve the accountability and transparency of business performance globally, by providing the open data exchange standard for business reporting.</t>
+  </si>
+  <si>
+    <t>[Taxonomy Development Handbook](https://xbrlus.github.io/docs/tdh.html)</t>
+  </si>
+  <si>
+    <t>The Taxonomy Development Handbook (TDH) is a comprehensive guide that directs regulators, industry experts, and businesses through a practical, consistent roadmap to building high quality data standards using XBRL.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -373,11 +386,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,7 +440,24 @@
         <v>9</v>
       </c>
     </row>
+    <row r="6" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>